--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tac2-Tacr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tac2-Tacr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Tacr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,7 +537,7 @@
         <v>0.2004523333333333</v>
       </c>
       <c r="H2">
-        <v>0.6013569999999999</v>
+        <v>0.601357</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.057966</v>
+        <v>0.2838346666666667</v>
       </c>
       <c r="N2">
-        <v>0.173898</v>
+        <v>0.851504</v>
       </c>
       <c r="O2">
-        <v>0.5622381149449072</v>
+        <v>0.7335492763611302</v>
       </c>
       <c r="P2">
-        <v>0.5622381149449071</v>
+        <v>0.7335492763611302</v>
       </c>
       <c r="Q2">
-        <v>0.011619419954</v>
+        <v>0.05689532121422223</v>
       </c>
       <c r="R2">
-        <v>0.104574779586</v>
+        <v>0.512057890928</v>
       </c>
       <c r="S2">
-        <v>0.5622381149449072</v>
+        <v>0.7335492763611302</v>
       </c>
       <c r="T2">
-        <v>0.5622381149449071</v>
+        <v>0.7335492763611302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,7 +599,7 @@
         <v>0.2004523333333333</v>
       </c>
       <c r="H3">
-        <v>0.6013569999999999</v>
+        <v>0.601357</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +614,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
+        <v>0.057966</v>
+      </c>
+      <c r="N3">
+        <v>0.173898</v>
+      </c>
+      <c r="O3">
+        <v>0.1498087525844245</v>
+      </c>
+      <c r="P3">
+        <v>0.1498087525844245</v>
+      </c>
+      <c r="Q3">
+        <v>0.011619419954</v>
+      </c>
+      <c r="R3">
+        <v>0.104574779586</v>
+      </c>
+      <c r="S3">
+        <v>0.1498087525844245</v>
+      </c>
+      <c r="T3">
+        <v>0.1498087525844245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2004523333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.601357</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
         <v>0.04513266666666666</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>0.135398</v>
       </c>
-      <c r="O3">
-        <v>0.4377618850550928</v>
-      </c>
-      <c r="P3">
-        <v>0.4377618850550928</v>
-      </c>
-      <c r="Q3">
-        <v>0.009046948342888887</v>
-      </c>
-      <c r="R3">
-        <v>0.08142253508599999</v>
-      </c>
-      <c r="S3">
-        <v>0.4377618850550928</v>
-      </c>
-      <c r="T3">
-        <v>0.4377618850550928</v>
+      <c r="O4">
+        <v>0.1166419710544452</v>
+      </c>
+      <c r="P4">
+        <v>0.1166419710544452</v>
+      </c>
+      <c r="Q4">
+        <v>0.009046948342888888</v>
+      </c>
+      <c r="R4">
+        <v>0.081422535086</v>
+      </c>
+      <c r="S4">
+        <v>0.1166419710544452</v>
+      </c>
+      <c r="T4">
+        <v>0.1166419710544452</v>
       </c>
     </row>
   </sheetData>
